--- a/Data/EC/NIT-8605134931.xlsx
+++ b/Data/EC/NIT-8605134931.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07FDFB12-8BFA-4809-82F9-7C36D8E2FA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AF7FF2-A507-4103-8443-D5F0D8D9D145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE3C582C-7671-4E65-ADB5-302B1022EFE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0EAA8FE1-E3DE-48AD-8F7C-05F53447D248}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,151 +74,163 @@
     <t>1902</t>
   </si>
   <si>
+    <t>1047439864</t>
+  </si>
+  <si>
+    <t>HERNANDO JOSE GARCIA DIAZ</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>1100399519</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA MUÑOZ ARAUJO</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
     <t>1143406856</t>
   </si>
   <si>
     <t>KAROLY MARTINEZ PACHECO</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>2202</t>
   </si>
   <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
     <t>13543762</t>
   </si>
   <si>
     <t>JHON FREDY GOMEZ GOMEZ</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
     <t>1109493344</t>
   </si>
   <si>
     <t>WILLMER ESTEVEN MONTAÑA PERDOMO</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1100399519</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA MUÑOZ ARAUJO</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -632,7 +644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA8B5EA-E0FA-9363-8180-AE2FD155C3CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C094060-231A-0604-F96F-13DD4918DC5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD54EC-E462-4F2F-8FD6-DD008EDB3A3B}">
-  <dimension ref="B2:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA04F1F-AA74-4FED-A5DE-36A4F0E0067A}">
+  <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1008,7 +1020,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1053,7 +1065,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1085,12 +1097,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5708000</v>
+        <v>5948000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,17 +1113,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1138,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1184,10 +1196,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="G17" s="18">
-        <v>2500000</v>
+        <v>3500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1198,19 +1210,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="G18" s="18">
-        <v>2500000</v>
+        <v>5500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1221,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
         <v>100000</v>
@@ -1244,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
         <v>100000</v>
@@ -1267,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>100000</v>
@@ -1290,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>100000</v>
@@ -1313,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
         <v>100000</v>
@@ -1336,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>100000</v>
@@ -1359,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
         <v>100000</v>
@@ -1382,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>100000</v>
@@ -1405,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
         <v>100000</v>
@@ -1428,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
         <v>100000</v>
@@ -1451,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
         <v>100000</v>
@@ -1474,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
         <v>100000</v>
@@ -1497,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F31" s="18">
         <v>100000</v>
@@ -1520,19 +1532,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>342000</v>
+        <v>100000</v>
       </c>
       <c r="G32" s="18">
-        <v>8550000</v>
+        <v>2500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1543,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
         <v>100000</v>
@@ -1566,19 +1578,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
-        <v>342000</v>
+        <v>100000</v>
       </c>
       <c r="G34" s="18">
-        <v>8550000</v>
+        <v>2500000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1589,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
         <v>100000</v>
@@ -1612,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
         <v>100000</v>
@@ -1635,19 +1647,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
-        <v>342000</v>
+        <v>100000</v>
       </c>
       <c r="G37" s="18">
-        <v>8550000</v>
+        <v>2500000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1658,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
         <v>100000</v>
@@ -1681,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
         <v>100000</v>
@@ -1704,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F40" s="18">
         <v>100000</v>
@@ -1727,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F41" s="18">
         <v>100000</v>
@@ -1750,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F42" s="18">
         <v>100000</v>
@@ -1773,13 +1785,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F43" s="18">
         <v>100000</v>
@@ -1796,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F44" s="18">
-        <v>288000</v>
+        <v>100000</v>
       </c>
       <c r="G44" s="18">
-        <v>7200000</v>
+        <v>2500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1819,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F45" s="18">
         <v>100000</v>
@@ -1842,13 +1854,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F46" s="18">
         <v>100000</v>
@@ -1865,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F47" s="18">
         <v>100000</v>
@@ -1888,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18">
         <v>100000</v>
@@ -1911,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F49" s="18">
         <v>100000</v>
@@ -1934,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F50" s="18">
         <v>100000</v>
@@ -1957,19 +1969,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F51" s="18">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="G51" s="18">
-        <v>5500000</v>
+        <v>2500000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1980,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F52" s="18">
         <v>100000</v>
@@ -2003,13 +2015,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
         <v>100000</v>
@@ -2026,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F54" s="18">
         <v>100000</v>
@@ -2049,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F55" s="18">
         <v>100000</v>
@@ -2072,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F56" s="18">
         <v>100000</v>
@@ -2095,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F57" s="18">
         <v>100000</v>
@@ -2118,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F58" s="18">
         <v>100000</v>
@@ -2141,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F59" s="18">
         <v>100000</v>
@@ -2164,16 +2176,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F60" s="18">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="G60" s="18">
         <v>2500000</v>
@@ -2187,75 +2199,121 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
-        <v>100000</v>
+        <v>342000</v>
       </c>
       <c r="G61" s="18">
-        <v>2500000</v>
+        <v>8550000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="24">
-        <v>100000</v>
-      </c>
-      <c r="G62" s="24">
-        <v>2500000</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="H67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="H68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="18">
+        <v>342000</v>
+      </c>
+      <c r="G62" s="18">
+        <v>8550000</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="18">
+        <v>342000</v>
+      </c>
+      <c r="G63" s="18">
+        <v>8550000</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="24">
+        <v>288000</v>
+      </c>
+      <c r="G64" s="24">
+        <v>7200000</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="26"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="H69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="H70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H69:J69"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8605134931.xlsx
+++ b/Data/EC/NIT-8605134931.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AF7FF2-A507-4103-8443-D5F0D8D9D145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A5D7CE-1388-4856-8F10-4C8C9FCE114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0EAA8FE1-E3DE-48AD-8F7C-05F53447D248}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{657AB14A-FA0B-4BE1-B843-6991530BC42A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,13 +74,109 @@
     <t>1902</t>
   </si>
   <si>
-    <t>1047439864</t>
-  </si>
-  <si>
-    <t>HERNANDO JOSE GARCIA DIAZ</t>
-  </si>
-  <si>
-    <t>2104</t>
+    <t>1143406856</t>
+  </si>
+  <si>
+    <t>KAROLY MARTINEZ PACHECO</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>13543762</t>
+  </si>
+  <si>
+    <t>JHON FREDY GOMEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1109493344</t>
+  </si>
+  <si>
+    <t>WILLMER ESTEVEN MONTAÑA PERDOMO</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
   </si>
   <si>
     <t>1100399519</t>
@@ -92,145 +188,49 @@
     <t>2407</t>
   </si>
   <si>
-    <t>1143406856</t>
-  </si>
-  <si>
-    <t>KAROLY MARTINEZ PACHECO</t>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>13543762</t>
-  </si>
-  <si>
-    <t>JHON FREDY GOMEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>1109493344</t>
-  </si>
-  <si>
-    <t>WILLMER ESTEVEN MONTAÑA PERDOMO</t>
+    <t>1069504937</t>
+  </si>
+  <si>
+    <t>ENZO ESTEBAN SANCHEZ CAUSIL</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -329,7 +329,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -342,9 +344,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -544,23 +544,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,10 +588,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,7 +644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C094060-231A-0604-F96F-13DD4918DC5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD186273-0380-7DC0-A777-3F1CA6FD6CD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,8 +995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA04F1F-AA74-4FED-A5DE-36A4F0E0067A}">
-  <dimension ref="B2:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58F6F26-34C0-4920-85C7-32F9A60ED533}">
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1102,7 +1102,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5948000</v>
+        <v>6075720</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1196,10 +1196,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>140000</v>
+        <v>70000</v>
       </c>
       <c r="G17" s="18">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1210,19 +1210,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="G18" s="18">
-        <v>5500000</v>
+        <v>2500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1233,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>100000</v>
@@ -1256,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>100000</v>
@@ -1279,13 +1279,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F21" s="18">
         <v>100000</v>
@@ -1302,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F22" s="18">
         <v>100000</v>
@@ -1325,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>100000</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>100000</v>
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>100000</v>
@@ -1394,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>100000</v>
@@ -1417,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>100000</v>
@@ -1440,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>100000</v>
@@ -1463,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>100000</v>
@@ -1486,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>100000</v>
@@ -1509,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>100000</v>
@@ -1532,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>100000</v>
@@ -1555,19 +1555,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>100000</v>
+        <v>342000</v>
       </c>
       <c r="G33" s="18">
-        <v>2500000</v>
+        <v>8550000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1578,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>100000</v>
@@ -1601,19 +1601,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>100000</v>
+        <v>342000</v>
       </c>
       <c r="G35" s="18">
-        <v>2500000</v>
+        <v>8550000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>100000</v>
@@ -1647,19 +1647,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>100000</v>
+        <v>342000</v>
       </c>
       <c r="G37" s="18">
-        <v>2500000</v>
+        <v>8550000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1670,13 +1670,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>100000</v>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>100000</v>
@@ -1716,13 +1716,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>100000</v>
@@ -1739,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>100000</v>
@@ -1762,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>100000</v>
@@ -1785,13 +1785,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>100000</v>
@@ -1808,13 +1808,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>100000</v>
@@ -1831,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>100000</v>
+        <v>288000</v>
       </c>
       <c r="G45" s="18">
-        <v>2500000</v>
+        <v>7200000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1854,13 +1854,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>100000</v>
@@ -1877,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>100000</v>
@@ -1900,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>100000</v>
@@ -1923,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
         <v>100000</v>
@@ -1946,19 +1946,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="G50" s="18">
-        <v>2500000</v>
+        <v>5500000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1969,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>100000</v>
@@ -1992,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>100000</v>
@@ -2015,13 +2015,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
         <v>100000</v>
@@ -2038,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>100000</v>
@@ -2061,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>100000</v>
@@ -2084,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>100000</v>
@@ -2107,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
         <v>100000</v>
@@ -2130,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
         <v>100000</v>
@@ -2153,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
         <v>100000</v>
@@ -2176,16 +2176,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="G60" s="18">
         <v>2500000</v>
@@ -2199,19 +2199,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
-        <v>342000</v>
+        <v>100000</v>
       </c>
       <c r="G61" s="18">
-        <v>8550000</v>
+        <v>2500000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2222,19 +2222,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
-        <v>342000</v>
+        <v>100000</v>
       </c>
       <c r="G62" s="18">
-        <v>8550000</v>
+        <v>2500000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2245,75 +2245,98 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F63" s="18">
-        <v>342000</v>
+        <v>100000</v>
       </c>
       <c r="G63" s="18">
-        <v>8550000</v>
+        <v>2500000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="22" t="s">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="E64" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="24">
-        <v>288000</v>
-      </c>
-      <c r="G64" s="24">
-        <v>7200000</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="F64" s="18">
+        <v>167720</v>
+      </c>
+      <c r="G64" s="18">
+        <v>4193000</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="24">
+        <v>100000</v>
+      </c>
+      <c r="G65" s="24">
+        <v>2500000</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" s="32"/>
       <c r="H70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="H71:J71"/>
     <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H69:J69"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
